--- a/Pruebas de integracion 2.xlsx
+++ b/Pruebas de integracion 2.xlsx
@@ -8,7 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CA002" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CA001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CA002" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CA003" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CA004" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CA005" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="CA006" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,22 +452,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>CA001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CustomUser - Client</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Validar la creación de usuarios con diferentes roles y la asociación con clientes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sistema iniciado, sin usuarios existentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>CA002</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Verificar la correcta creación y almacenamiento de productos</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sistema iniciado, sin productos existentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CA003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Comprobar el flujo de creación de pedidos y su estado</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sistema iniciado, con productos y clientes existentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CA004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Validar el proceso de pago y actualización del estado de los pedidos</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sistema iniciado, con pedidos pendientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CA005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Verificar la gestión de entregas y actualización del estado de las mismas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sistema iniciado, con pedidos pagados y pendientes de entrega</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CA006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SalesReport</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Validar la generación y almacenamiento de informes de ventas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sistema iniciado, con ventas registradas</t>
         </is>
       </c>
     </row>
@@ -472,6 +587,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Paso</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Descripción de pasos a seguir</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Datos Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Salida Esperada</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>¿OK?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Crear un usuario con rol de Cliente</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>username, password, role=Cliente</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Usuario creado correctamente</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Crear un usuario con rol de Administrador</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>username, password, role=Administrador</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Usuario creado correctamente</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asociar un cliente a un usuario</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>client user</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cliente asociado correctamente</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -564,4 +796,406 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Paso</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Descripción de pasos a seguir</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Datos Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Salida Esperada</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>¿OK?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Crear un pedido para un producto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>product_id, quantity, client_name, client_address, client_email</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pedido creado correctamente</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Actualizar el estado del pedido a 'Approved'</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>order_id, status='Approved'</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Estado del pedido actualizado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rechazar un pedido</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>order_id, status='Rejected'</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pedido rechazado correctamente</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Paso</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Descripción de pasos a seguir</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Datos Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Salida Esperada</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>¿OK?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Realizar un pago para un pedido aprobado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>order_id, amount, payment_date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pago realizado y registrado correctamente</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Actualizar el estado del pago a 'Confirmed'</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>payment_id, status='Confirmed'</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Estado del pago actualizado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Paso</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Descripción de pasos a seguir</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Datos Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Salida Esperada</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>¿OK?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Registrar la entrega de un pedido pagado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>order_id, delivery_date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Entrega registrada y estado actualizado</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Actualizar el estado de la entrega a 'Delivered'</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>delivery_id, status='Delivered'</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Estado de la entrega actualizado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Paso</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Descripción de pasos a seguir</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Datos Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Salida Esperada</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>¿OK?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Generar un informe de ventas para el mes actual</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Informe de ventas generado y almacenado correctamente</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Verificar los datos en el informe de ventas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Datos de ventas correctos y completos</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>